--- a/Discharge/Station6_2021-07-23_0945.xlsx
+++ b/Discharge/Station6_2021-07-23_0945.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{5ADAF221-B0A8-4E00-8263-CA76F173FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77AFD3C-750E-4209-A166-4D74BA157F5B}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{5ADAF221-B0A8-4E00-8263-CA76F173FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEA4581-D049-48C1-B8F6-B2EB5619DE1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14640" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -45,9 +45,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>segment</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,21 +394,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -418,8 +433,24 @@
         <f>SUM(E2:E20)</f>
         <v>0.48200800000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>0.87359999999999993</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>0.87359999999999993</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>0.48200800000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20</v>
       </c>
@@ -437,8 +468,12 @@
         <f t="shared" ref="E3:E4" si="0">(D3-D2)*(B3/100)*C3</f>
         <v>3.5568000000000016E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>4.5600000000000022E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>40</v>
       </c>
@@ -456,8 +491,12 @@
         <f t="shared" si="0"/>
         <v>0.10207999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="2">(D4-D3)*B4/100</f>
+        <v>0.11599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>60</v>
       </c>
@@ -475,8 +514,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>0.10719999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>80</v>
       </c>
@@ -491,11 +534,15 @@
         <v>0.9</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" si="2">(D6-D5)*(B6/100)*C6</f>
+        <f t="shared" ref="E6:E12" si="3">(D6-D5)*(B6/100)*C6</f>
         <v>7.8000000000000028E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.15600000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>100</v>
       </c>
@@ -510,11 +557,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9040000000000027E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.15200000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>120</v>
       </c>
@@ -529,11 +580,15 @@
         <v>1.2999999999999998</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2799999999999937E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.13199999999999981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>140</v>
       </c>
@@ -548,11 +603,15 @@
         <v>1.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0400000000000019E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>160</v>
       </c>
@@ -567,11 +626,15 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1200000000000056E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>180</v>
       </c>
@@ -586,11 +649,15 @@
         <v>1.9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9999999999999906E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200</v>
       </c>
@@ -605,6 +672,28 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
